--- a/data/element.xlsx
+++ b/data/element.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalAdmin\Documents\zhiheng\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f41c1af2eee30a91/zhiheng li/zhiheng draw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16BD05B-E8ED-4AFE-BBD3-739FEC72F496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{E16BD05B-E8ED-4AFE-BBD3-739FEC72F496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BDE423E-AD17-524E-8327-767B2685211C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{3B7472B7-3BB6-B746-AF9C-35D690AA35CC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="37460" windowHeight="21140" xr2:uid="{3B7472B7-3BB6-B746-AF9C-35D690AA35CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1884,12 +1884,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1904,12 +1910,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2226,13 +2234,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFAE830-386B-564A-8270-CED2E00BEDBE}">
   <dimension ref="A1:AP5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AM1" sqref="AM1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2242,7 +2250,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -2257,7 +2265,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -2360,7 +2368,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -2370,7 +2378,7 @@
       <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="6">
         <v>3</v>
       </c>
       <c r="E2" s="1">
@@ -2382,10 +2390,10 @@
       <c r="G2" s="1">
         <v>5</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="6">
         <v>5</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="6">
         <v>5</v>
       </c>
       <c r="J2" s="1">
@@ -2488,7 +2496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1.179</v>
       </c>
@@ -2498,7 +2506,7 @@
       <c r="C3" s="2">
         <v>1.44</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="6">
         <v>0.61</v>
       </c>
       <c r="E3" s="2">
@@ -2510,10 +2518,10 @@
       <c r="G3" s="1">
         <v>0.54</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="6">
         <v>0.64</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="6">
         <v>0.64</v>
       </c>
       <c r="J3" s="2">
@@ -2616,7 +2624,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1.4</v>
       </c>
@@ -2626,7 +2634,7 @@
       <c r="C4" s="1">
         <v>1.03</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="6">
         <v>1.77</v>
       </c>
       <c r="E4" s="1">
@@ -2638,10 +2646,10 @@
       <c r="G4" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="6">
         <v>1.87</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="6">
         <v>1.8</v>
       </c>
       <c r="J4" s="1">
@@ -2744,7 +2752,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -2754,7 +2762,7 @@
       <c r="C5" s="1">
         <v>8</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="6">
         <v>6</v>
       </c>
       <c r="E5" s="1">
@@ -2766,10 +2774,10 @@
       <c r="G5" s="1">
         <v>6</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="6">
         <v>6</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="6">
         <v>6</v>
       </c>
       <c r="J5" s="1">
@@ -2885,12 +2893,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -2898,7 +2906,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
@@ -2906,7 +2914,7 @@
         <v>1.5788599999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -2914,7 +2922,7 @@
         <v>1.04434</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
@@ -2922,7 +2930,7 @@
         <v>0.92201</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -2930,7 +2938,7 @@
         <v>0.68911</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
@@ -2938,7 +2946,7 @@
         <v>0.16528999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>57</v>
       </c>
@@ -2946,7 +2954,7 @@
         <v>2.1768100000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
@@ -2954,7 +2962,7 @@
         <v>0.94867999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>52</v>
       </c>
@@ -2962,7 +2970,7 @@
         <v>0.23396</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>53</v>
       </c>
@@ -2970,7 +2978,7 @@
         <v>0.32786999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
@@ -2978,7 +2986,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>54</v>
       </c>
@@ -2986,7 +2994,7 @@
         <v>1.6512500000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
@@ -2994,7 +3002,7 @@
         <v>0.505</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>59</v>
       </c>
@@ -3002,7 +3010,7 @@
         <v>10.29457</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>55</v>
       </c>
@@ -3010,7 +3018,7 @@
         <v>6.0124000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>58</v>
       </c>
@@ -3018,7 +3026,7 @@
         <v>19.124600000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -3026,7 +3034,7 @@
         <v>0.71416999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>44</v>
       </c>
@@ -3034,7 +3042,7 @@
         <v>1.7887599999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>45</v>
       </c>
@@ -3042,7 +3050,7 @@
         <v>25.51268</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
@@ -3050,7 +3058,7 @@
         <v>0.4607</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -3058,7 +3066,7 @@
         <v>3.3035100000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>61</v>
       </c>
